--- a/tables/tables.xlsx
+++ b/tables/tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\ResEleCon-MX\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB554590-DC6A-4A0D-8200-1C7B501FF7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBD60B-77ED-4E54-8BB2-0901CFE86582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="23010" windowHeight="12450" activeTab="2" xr2:uid="{61636FC3-04DD-4693-908E-92F395796694}"/>
+    <workbookView xWindow="600" yWindow="2115" windowWidth="26625" windowHeight="12450" activeTab="3" xr2:uid="{61636FC3-04DD-4693-908E-92F395796694}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="table2" sheetId="2" r:id="rId2"/>
     <sheet name="table3" sheetId="3" r:id="rId3"/>
+    <sheet name="CFE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="206">
   <si>
     <t>Data</t>
   </si>
@@ -408,6 +409,252 @@
   </si>
   <si>
     <t>Variable</t>
+  </si>
+  <si>
+    <t>LimB</t>
+  </si>
+  <si>
+    <t>LimBV</t>
+  </si>
+  <si>
+    <t>LimI</t>
+  </si>
+  <si>
+    <t>LimIV</t>
+  </si>
+  <si>
+    <t>LimIVA</t>
+  </si>
+  <si>
+    <t>Ldac</t>
+  </si>
+  <si>
+    <t>LB_pesos</t>
+  </si>
+  <si>
+    <t>LBV_pesos</t>
+  </si>
+  <si>
+    <t>LI_pesos</t>
+  </si>
+  <si>
+    <t>LIV_pesos</t>
+  </si>
+  <si>
+    <t>LIVA_pesos</t>
+  </si>
+  <si>
+    <t>Ldac_pesos</t>
+  </si>
+  <si>
+    <t>LdacV_pesos</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>Tariff</t>
+  </si>
+  <si>
+    <t>Medium (MXN/kWh)</t>
+  </si>
+  <si>
+    <t>Base (MXN/kWh)</t>
+  </si>
+  <si>
+    <t>Summer High</t>
+  </si>
+  <si>
+    <t>Surplus (MXN/kWh)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Base (kWh)</t>
+  </si>
+  <si>
+    <t>Medium (kWh)</t>
+  </si>
+  <si>
+    <t>DAC (kWh)</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>c_fijo_1</t>
+  </si>
+  <si>
+    <t>c_fijo_2</t>
+  </si>
+  <si>
+    <t>c_fijo_3</t>
+  </si>
+  <si>
+    <t>c_fijo_4</t>
+  </si>
+  <si>
+    <t>c_fijo_5</t>
+  </si>
+  <si>
+    <t>c_fijo_6</t>
+  </si>
+  <si>
+    <t>c_fijo_7</t>
+  </si>
+  <si>
+    <t>c_fijo_8</t>
+  </si>
+  <si>
+    <t>c_fijo_9</t>
+  </si>
+  <si>
+    <t>c_fijo_10</t>
+  </si>
+  <si>
+    <t>c_fijo_11</t>
+  </si>
+  <si>
+    <t>c_fijo_12</t>
+  </si>
+  <si>
+    <t>c_ener_1</t>
+  </si>
+  <si>
+    <t>c_ener_2</t>
+  </si>
+  <si>
+    <t>c_ener_3</t>
+  </si>
+  <si>
+    <t>c_ener_4</t>
+  </si>
+  <si>
+    <t>c_ener_5</t>
+  </si>
+  <si>
+    <t>c_ener_6</t>
+  </si>
+  <si>
+    <t>c_ener_7</t>
+  </si>
+  <si>
+    <t>c_ener_8</t>
+  </si>
+  <si>
+    <t>c_ener_9</t>
+  </si>
+  <si>
+    <t>c_ener_10</t>
+  </si>
+  <si>
+    <t>c_ener_11</t>
+  </si>
+  <si>
+    <t>c_ener_12</t>
+  </si>
+  <si>
+    <t>c_ener_v_1</t>
+  </si>
+  <si>
+    <t>c_ener_v_2</t>
+  </si>
+  <si>
+    <t>c_ener_v_3</t>
+  </si>
+  <si>
+    <t>c_ener_v_4</t>
+  </si>
+  <si>
+    <t>c_ener_v_5</t>
+  </si>
+  <si>
+    <t>c_ener_v_6</t>
+  </si>
+  <si>
+    <t>c_ener_v_7</t>
+  </si>
+  <si>
+    <t>c_ener_v_8</t>
+  </si>
+  <si>
+    <t>c_ener_v_9</t>
+  </si>
+  <si>
+    <t>c_ener_v_10</t>
+  </si>
+  <si>
+    <t>c_ener_v_11</t>
+  </si>
+  <si>
+    <t>c_ener_v_12</t>
+  </si>
+  <si>
+    <t>c_fijo_v_m</t>
+  </si>
+  <si>
+    <t>c_fijo_m</t>
+  </si>
+  <si>
+    <t>c_ener_v_m</t>
+  </si>
+  <si>
+    <t>c_ener_m</t>
+  </si>
+  <si>
+    <t>c_ener_m_sm</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NNE</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Fixed price (MXN/Month)</t>
+  </si>
+  <si>
+    <t>Summer energy price (MXN/kWh)</t>
+  </si>
+  <si>
+    <t>Energy price (MXN/kWh)</t>
+  </si>
+  <si>
+    <t>fijo</t>
+  </si>
+  <si>
+    <t>ener</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -417,7 +664,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -451,7 +698,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -479,12 +726,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -504,7 +760,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2248,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF2C5D2-553C-423D-AA7D-CC8797FDD8EF}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B26" sqref="A18:B26"/>
     </sheetView>
   </sheetViews>
@@ -2647,4 +2932,1612 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE61C8-4D91-40B5-913B-842F291DA26D}">
+  <dimension ref="A1:BB29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="A23:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2.802</v>
+      </c>
+      <c r="I3">
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <v>140</v>
+      </c>
+      <c r="N3">
+        <v>250</v>
+      </c>
+      <c r="O3">
+        <v>59.475000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>121.61499999999999</v>
+      </c>
+      <c r="T3">
+        <v>429.83499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2.802</v>
+      </c>
+      <c r="I4">
+        <v>75</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>150</v>
+      </c>
+      <c r="L4">
+        <v>150</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4">
+        <v>59.475000000000001</v>
+      </c>
+      <c r="P4">
+        <v>69.699999999999903</v>
+      </c>
+      <c r="Q4">
+        <v>131.17500000000001</v>
+      </c>
+      <c r="R4">
+        <v>110.799999999999</v>
+      </c>
+      <c r="T4">
+        <v>551.47500000000002</v>
+      </c>
+      <c r="U4">
+        <v>531.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2.802</v>
+      </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <v>125</v>
+      </c>
+      <c r="K5">
+        <v>175</v>
+      </c>
+      <c r="L5">
+        <v>225</v>
+      </c>
+      <c r="N5">
+        <v>400</v>
+      </c>
+      <c r="O5">
+        <v>59.475000000000001</v>
+      </c>
+      <c r="P5">
+        <v>87.125</v>
+      </c>
+      <c r="Q5">
+        <v>155.07499999999999</v>
+      </c>
+      <c r="R5">
+        <v>169.32499999999999</v>
+      </c>
+      <c r="T5">
+        <v>785.52499999999998</v>
+      </c>
+      <c r="U5">
+        <v>659.67499999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="G6" s="13">
+        <v>2.802</v>
+      </c>
+      <c r="I6">
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+      <c r="K6">
+        <v>175</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>450</v>
+      </c>
+      <c r="N6">
+        <v>850</v>
+      </c>
+      <c r="O6">
+        <v>59.475000000000001</v>
+      </c>
+      <c r="P6">
+        <v>104.55</v>
+      </c>
+      <c r="Q6">
+        <v>155.07499999999999</v>
+      </c>
+      <c r="R6">
+        <v>227.85</v>
+      </c>
+      <c r="S6">
+        <v>385.35</v>
+      </c>
+      <c r="T6">
+        <v>2046.425</v>
+      </c>
+      <c r="U6">
+        <v>1506.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2.802</v>
+      </c>
+      <c r="I7">
+        <v>75</v>
+      </c>
+      <c r="J7">
+        <v>175</v>
+      </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7">
+        <v>600</v>
+      </c>
+      <c r="N7">
+        <v>1000</v>
+      </c>
+      <c r="O7">
+        <v>59.475000000000001</v>
+      </c>
+      <c r="P7">
+        <v>121.97499999999999</v>
+      </c>
+      <c r="Q7">
+        <v>178.97499999999999</v>
+      </c>
+      <c r="R7">
+        <v>306.92499999999899</v>
+      </c>
+      <c r="S7">
+        <v>516.92499999999995</v>
+      </c>
+      <c r="T7">
+        <v>2420.5749999999998</v>
+      </c>
+      <c r="U7">
+        <v>1637.7249999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2.802</v>
+      </c>
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>750</v>
+      </c>
+      <c r="M8">
+        <v>900</v>
+      </c>
+      <c r="N8">
+        <v>2000</v>
+      </c>
+      <c r="O8">
+        <v>59.475000000000001</v>
+      </c>
+      <c r="P8">
+        <v>174.89999999999901</v>
+      </c>
+      <c r="Q8">
+        <v>178.97499999999999</v>
+      </c>
+      <c r="R8">
+        <v>501.599999999999</v>
+      </c>
+      <c r="S8">
+        <v>643.79999999999995</v>
+      </c>
+      <c r="T8">
+        <v>5222.5749999999998</v>
+      </c>
+      <c r="U8">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1.768</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2.802</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>1200</v>
+      </c>
+      <c r="M9">
+        <v>2500</v>
+      </c>
+      <c r="N9">
+        <v>2500</v>
+      </c>
+      <c r="O9">
+        <v>59.475000000000001</v>
+      </c>
+      <c r="P9">
+        <v>174.89999999999901</v>
+      </c>
+      <c r="Q9">
+        <v>178.97499999999999</v>
+      </c>
+      <c r="R9">
+        <v>828.3</v>
+      </c>
+      <c r="S9">
+        <v>3126.7</v>
+      </c>
+      <c r="T9">
+        <v>6623.5749999999998</v>
+      </c>
+      <c r="U9">
+        <v>3126.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" t="s">
+        <v>157</v>
+      </c>
+      <c r="O12" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>160</v>
+      </c>
+      <c r="R12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" t="s">
+        <v>163</v>
+      </c>
+      <c r="U12" t="s">
+        <v>164</v>
+      </c>
+      <c r="V12" t="s">
+        <v>165</v>
+      </c>
+      <c r="W12" t="s">
+        <v>166</v>
+      </c>
+      <c r="X12" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="I13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13">
+        <v>100.63</v>
+      </c>
+      <c r="K13">
+        <v>100.77</v>
+      </c>
+      <c r="L13">
+        <v>102.24</v>
+      </c>
+      <c r="M13">
+        <v>102.45</v>
+      </c>
+      <c r="N13">
+        <v>102.79</v>
+      </c>
+      <c r="O13">
+        <v>102.8</v>
+      </c>
+      <c r="P13">
+        <v>104.77</v>
+      </c>
+      <c r="Q13">
+        <v>106.68</v>
+      </c>
+      <c r="R13">
+        <v>105.62</v>
+      </c>
+      <c r="S13">
+        <v>105.17</v>
+      </c>
+      <c r="T13">
+        <v>105.64</v>
+      </c>
+      <c r="U13">
+        <v>105.82</v>
+      </c>
+      <c r="V13">
+        <v>3.75</v>
+      </c>
+      <c r="W13">
+        <v>3.81</v>
+      </c>
+      <c r="X13">
+        <v>3.96</v>
+      </c>
+      <c r="Y13">
+        <v>3.79</v>
+      </c>
+      <c r="Z13">
+        <v>3.79</v>
+      </c>
+      <c r="AA13">
+        <v>3.99</v>
+      </c>
+      <c r="AB13">
+        <v>4.08</v>
+      </c>
+      <c r="AC13">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="AD13">
+        <v>3.97</v>
+      </c>
+      <c r="AE13">
+        <v>4.01</v>
+      </c>
+      <c r="AF13">
+        <v>4.13</v>
+      </c>
+      <c r="AG13">
+        <v>4.21</v>
+      </c>
+      <c r="AH13">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="AI13">
+        <v>4.43</v>
+      </c>
+      <c r="AJ13">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AK13">
+        <v>4.41</v>
+      </c>
+      <c r="AL13">
+        <v>4.41</v>
+      </c>
+      <c r="AM13">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AN13">
+        <v>4.75</v>
+      </c>
+      <c r="AO13">
+        <v>4.78</v>
+      </c>
+      <c r="AP13">
+        <v>4.62</v>
+      </c>
+      <c r="AQ13">
+        <v>4.67</v>
+      </c>
+      <c r="AR13">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AS13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AT13">
+        <v>104.63833333333299</v>
+      </c>
+      <c r="AU13">
+        <v>102.925</v>
+      </c>
+      <c r="AV13">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="AW13">
+        <v>3.9416666666666602</v>
+      </c>
+      <c r="AX13">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="AZ13">
+        <f>AVERAGE(AT13:AU13)</f>
+        <v>103.7816666666665</v>
+      </c>
+      <c r="BA13">
+        <f>AVERAGE(AW13:AX13)</f>
+        <v>4.2933333333333294</v>
+      </c>
+      <c r="BB13">
+        <f>AV13</f>
+        <v>4.6449999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <v>75</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="13">
+        <v>140</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="13">
+        <v>250</v>
+      </c>
+      <c r="I14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14">
+        <v>100.63</v>
+      </c>
+      <c r="K14">
+        <v>100.77</v>
+      </c>
+      <c r="L14">
+        <v>102.24</v>
+      </c>
+      <c r="M14">
+        <v>102.45</v>
+      </c>
+      <c r="N14">
+        <v>102.79</v>
+      </c>
+      <c r="O14">
+        <v>102.8</v>
+      </c>
+      <c r="P14">
+        <v>104.77</v>
+      </c>
+      <c r="Q14">
+        <v>106.68</v>
+      </c>
+      <c r="R14">
+        <v>105.62</v>
+      </c>
+      <c r="S14">
+        <v>105.17</v>
+      </c>
+      <c r="T14">
+        <v>105.64</v>
+      </c>
+      <c r="U14">
+        <v>105.82</v>
+      </c>
+      <c r="V14">
+        <v>3.75</v>
+      </c>
+      <c r="W14">
+        <v>3.81</v>
+      </c>
+      <c r="X14">
+        <v>3.96</v>
+      </c>
+      <c r="Y14">
+        <v>3.79</v>
+      </c>
+      <c r="Z14">
+        <v>3.79</v>
+      </c>
+      <c r="AA14">
+        <v>3.99</v>
+      </c>
+      <c r="AB14">
+        <v>4.08</v>
+      </c>
+      <c r="AC14">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="AD14">
+        <v>3.97</v>
+      </c>
+      <c r="AE14">
+        <v>4.01</v>
+      </c>
+      <c r="AF14">
+        <v>4.13</v>
+      </c>
+      <c r="AG14">
+        <v>4.21</v>
+      </c>
+      <c r="AH14">
+        <v>4.75</v>
+      </c>
+      <c r="AI14">
+        <v>4.83</v>
+      </c>
+      <c r="AJ14">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AK14">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AL14">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AM14">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AN14">
+        <v>5.18</v>
+      </c>
+      <c r="AO14">
+        <v>5.21</v>
+      </c>
+      <c r="AP14">
+        <v>5.03</v>
+      </c>
+      <c r="AQ14">
+        <v>5.09</v>
+      </c>
+      <c r="AR14">
+        <v>5.25</v>
+      </c>
+      <c r="AS14">
+        <v>5.34</v>
+      </c>
+      <c r="AT14">
+        <v>104.63833333333299</v>
+      </c>
+      <c r="AU14">
+        <v>102.925</v>
+      </c>
+      <c r="AV14">
+        <v>5.0633333333333299</v>
+      </c>
+      <c r="AW14">
+        <v>3.9416666666666602</v>
+      </c>
+      <c r="AX14">
+        <v>5.0633333333333299</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" ref="AZ14:AZ18" si="0">AVERAGE(AT14:AU14)</f>
+        <v>103.7816666666665</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" ref="BA14:BA18" si="1">AVERAGE(AW14:AX14)</f>
+        <v>4.5024999999999951</v>
+      </c>
+      <c r="BB14">
+        <f>AV14</f>
+        <v>5.0633333333333299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="13">
+        <v>75</v>
+      </c>
+      <c r="C15" s="13">
+        <v>100</v>
+      </c>
+      <c r="D15" s="13">
+        <v>150</v>
+      </c>
+      <c r="E15" s="13">
+        <v>150</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="13">
+        <v>300</v>
+      </c>
+      <c r="I15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15">
+        <v>100.63</v>
+      </c>
+      <c r="K15">
+        <v>100.77</v>
+      </c>
+      <c r="L15">
+        <v>102.24</v>
+      </c>
+      <c r="M15">
+        <v>102.45</v>
+      </c>
+      <c r="N15">
+        <v>102.79</v>
+      </c>
+      <c r="O15">
+        <v>102.8</v>
+      </c>
+      <c r="P15">
+        <v>104.77</v>
+      </c>
+      <c r="Q15">
+        <v>106.68</v>
+      </c>
+      <c r="R15">
+        <v>105.62</v>
+      </c>
+      <c r="S15">
+        <v>105.17</v>
+      </c>
+      <c r="T15">
+        <v>105.64</v>
+      </c>
+      <c r="U15">
+        <v>105.82</v>
+      </c>
+      <c r="V15">
+        <v>4.49</v>
+      </c>
+      <c r="W15">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="X15">
+        <v>4.74</v>
+      </c>
+      <c r="Y15">
+        <v>4.54</v>
+      </c>
+      <c r="Z15">
+        <v>4.54</v>
+      </c>
+      <c r="AA15">
+        <v>4.78</v>
+      </c>
+      <c r="AB15">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="AC15">
+        <v>4.92</v>
+      </c>
+      <c r="AD15">
+        <v>4.75</v>
+      </c>
+      <c r="AE15">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AF15">
+        <v>4.95</v>
+      </c>
+      <c r="AG15">
+        <v>5.04</v>
+      </c>
+      <c r="AT15">
+        <v>104.63833333333299</v>
+      </c>
+      <c r="AU15">
+        <v>102.925</v>
+      </c>
+      <c r="AW15">
+        <v>4.72</v>
+      </c>
+      <c r="AX15">
+        <v>4.7816666666666601</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="0"/>
+        <v>103.7816666666665</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="1"/>
+        <v>4.7508333333333299</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="13">
+        <v>75</v>
+      </c>
+      <c r="C16" s="13">
+        <v>125</v>
+      </c>
+      <c r="D16" s="13">
+        <v>175</v>
+      </c>
+      <c r="E16" s="13">
+        <v>225</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="13">
+        <v>400</v>
+      </c>
+      <c r="I16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16">
+        <v>100.63</v>
+      </c>
+      <c r="K16">
+        <v>100.77</v>
+      </c>
+      <c r="L16">
+        <v>102.24</v>
+      </c>
+      <c r="M16">
+        <v>102.45</v>
+      </c>
+      <c r="N16">
+        <v>102.79</v>
+      </c>
+      <c r="O16">
+        <v>102.8</v>
+      </c>
+      <c r="P16">
+        <v>104.77</v>
+      </c>
+      <c r="Q16">
+        <v>106.68</v>
+      </c>
+      <c r="R16">
+        <v>105.62</v>
+      </c>
+      <c r="S16">
+        <v>105.17</v>
+      </c>
+      <c r="T16">
+        <v>105.64</v>
+      </c>
+      <c r="U16">
+        <v>105.82</v>
+      </c>
+      <c r="V16">
+        <v>4.2</v>
+      </c>
+      <c r="W16">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="X16">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="Y16">
+        <v>4.25</v>
+      </c>
+      <c r="Z16">
+        <v>4.25</v>
+      </c>
+      <c r="AA16">
+        <v>4.47</v>
+      </c>
+      <c r="AB16">
+        <v>4.58</v>
+      </c>
+      <c r="AC16">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AD16">
+        <v>4.45</v>
+      </c>
+      <c r="AE16">
+        <v>4.5</v>
+      </c>
+      <c r="AF16">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AG16">
+        <v>4.72</v>
+      </c>
+      <c r="AT16">
+        <v>104.63833333333299</v>
+      </c>
+      <c r="AU16">
+        <v>102.925</v>
+      </c>
+      <c r="AW16">
+        <v>4.42</v>
+      </c>
+      <c r="AX16">
+        <v>4.4766666666666604</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="0"/>
+        <v>103.7816666666665</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="1"/>
+        <v>4.4483333333333306</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="13">
+        <v>75</v>
+      </c>
+      <c r="C17" s="13">
+        <v>150</v>
+      </c>
+      <c r="D17" s="13">
+        <v>175</v>
+      </c>
+      <c r="E17" s="13">
+        <v>300</v>
+      </c>
+      <c r="F17" s="13">
+        <v>450</v>
+      </c>
+      <c r="G17" s="13">
+        <v>850</v>
+      </c>
+      <c r="I17" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17">
+        <v>100.63</v>
+      </c>
+      <c r="K17">
+        <v>100.77</v>
+      </c>
+      <c r="L17">
+        <v>102.24</v>
+      </c>
+      <c r="M17">
+        <v>102.45</v>
+      </c>
+      <c r="N17">
+        <v>102.79</v>
+      </c>
+      <c r="O17">
+        <v>102.8</v>
+      </c>
+      <c r="P17">
+        <v>104.77</v>
+      </c>
+      <c r="Q17">
+        <v>106.68</v>
+      </c>
+      <c r="R17">
+        <v>105.62</v>
+      </c>
+      <c r="S17">
+        <v>105.17</v>
+      </c>
+      <c r="T17">
+        <v>105.64</v>
+      </c>
+      <c r="U17">
+        <v>105.82</v>
+      </c>
+      <c r="V17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W17">
+        <v>4.16</v>
+      </c>
+      <c r="X17">
+        <v>4.33</v>
+      </c>
+      <c r="Y17">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Z17">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AA17">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="AB17">
+        <v>4.46</v>
+      </c>
+      <c r="AC17">
+        <v>4.49</v>
+      </c>
+      <c r="AD17">
+        <v>4.34</v>
+      </c>
+      <c r="AE17">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AF17">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AG17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AT17">
+        <v>104.63833333333299</v>
+      </c>
+      <c r="AU17">
+        <v>102.925</v>
+      </c>
+      <c r="AW17">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AX17">
+        <v>4.3633333333333297</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="0"/>
+        <v>103.7816666666665</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="1"/>
+        <v>4.3366666666666642</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="13">
+        <v>75</v>
+      </c>
+      <c r="C18" s="13">
+        <v>175</v>
+      </c>
+      <c r="D18" s="13">
+        <v>200</v>
+      </c>
+      <c r="E18" s="13">
+        <v>400</v>
+      </c>
+      <c r="F18" s="13">
+        <v>600</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1000</v>
+      </c>
+      <c r="I18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18">
+        <v>100.63</v>
+      </c>
+      <c r="K18">
+        <v>100.77</v>
+      </c>
+      <c r="L18">
+        <v>102.24</v>
+      </c>
+      <c r="M18">
+        <v>102.45</v>
+      </c>
+      <c r="N18">
+        <v>102.79</v>
+      </c>
+      <c r="O18">
+        <v>102.8</v>
+      </c>
+      <c r="P18">
+        <v>104.77</v>
+      </c>
+      <c r="Q18">
+        <v>106.68</v>
+      </c>
+      <c r="R18">
+        <v>105.62</v>
+      </c>
+      <c r="S18">
+        <v>105.17</v>
+      </c>
+      <c r="T18">
+        <v>105.64</v>
+      </c>
+      <c r="U18">
+        <v>105.82</v>
+      </c>
+      <c r="V18">
+        <v>4.16</v>
+      </c>
+      <c r="W18">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="X18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y18">
+        <v>4.21</v>
+      </c>
+      <c r="Z18">
+        <v>4.21</v>
+      </c>
+      <c r="AA18">
+        <v>4.43</v>
+      </c>
+      <c r="AB18">
+        <v>4.53</v>
+      </c>
+      <c r="AC18">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AD18">
+        <v>4.41</v>
+      </c>
+      <c r="AE18">
+        <v>4.46</v>
+      </c>
+      <c r="AF18">
+        <v>4.59</v>
+      </c>
+      <c r="AG18">
+        <v>4.67</v>
+      </c>
+      <c r="AT18">
+        <v>104.63833333333299</v>
+      </c>
+      <c r="AU18">
+        <v>102.925</v>
+      </c>
+      <c r="AW18">
+        <v>4.3766666666666598</v>
+      </c>
+      <c r="AX18">
+        <v>4.43333333333333</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="0"/>
+        <v>103.7816666666665</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="1"/>
+        <v>4.4049999999999949</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="13">
+        <v>75</v>
+      </c>
+      <c r="C19" s="13">
+        <v>300</v>
+      </c>
+      <c r="D19" s="13">
+        <v>200</v>
+      </c>
+      <c r="E19" s="13">
+        <v>750</v>
+      </c>
+      <c r="F19" s="13">
+        <v>900</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="13">
+        <v>75</v>
+      </c>
+      <c r="C20" s="13">
+        <v>300</v>
+      </c>
+      <c r="D20" s="13">
+        <v>200</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="21">
+        <v>103.7816666666665</v>
+      </c>
+      <c r="C24" s="21">
+        <v>4.2933333333333294</v>
+      </c>
+      <c r="D24" s="21">
+        <v>4.6449999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="21">
+        <v>103.7816666666665</v>
+      </c>
+      <c r="C25" s="21">
+        <v>4.5024999999999951</v>
+      </c>
+      <c r="D25" s="21">
+        <v>5.0633333333333299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="21">
+        <v>103.7816666666665</v>
+      </c>
+      <c r="C26" s="21">
+        <v>4.7508333333333299</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="21">
+        <v>103.7816666666665</v>
+      </c>
+      <c r="C27" s="21">
+        <v>4.4483333333333306</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="21">
+        <v>103.7816666666665</v>
+      </c>
+      <c r="C28" s="21">
+        <v>4.3366666666666642</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="21">
+        <v>103.7816666666665</v>
+      </c>
+      <c r="C29" s="21">
+        <v>4.4049999999999949</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>